--- a/data/pca/factorExposure/factorExposure_2018-01-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-01-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01201512406043161</v>
+        <v>-0.006835046881452537</v>
       </c>
       <c r="C2">
-        <v>-0.005938300321034448</v>
+        <v>-0.030023540299405</v>
       </c>
       <c r="D2">
-        <v>0.02261415637784386</v>
+        <v>-0.02790024606636979</v>
       </c>
       <c r="E2">
-        <v>-0.06227407707288649</v>
+        <v>0.02477440498176688</v>
       </c>
       <c r="F2">
-        <v>-0.02996952970174303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03572053360852325</v>
+      </c>
+      <c r="G2">
+        <v>0.007864535199001269</v>
+      </c>
+      <c r="H2">
+        <v>0.009011657612985733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.06048963660249259</v>
+        <v>-0.05762456516957818</v>
       </c>
       <c r="C3">
-        <v>0.00330228308015144</v>
+        <v>-0.08973460114614457</v>
       </c>
       <c r="D3">
-        <v>-0.02968689072908868</v>
+        <v>-0.01353386674142614</v>
       </c>
       <c r="E3">
-        <v>-0.2481120191175459</v>
+        <v>0.07442628366507711</v>
       </c>
       <c r="F3">
-        <v>-0.1665282833647551</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.08564457286481897</v>
+      </c>
+      <c r="G3">
+        <v>0.06436835327508512</v>
+      </c>
+      <c r="H3">
+        <v>0.00281973414159197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03509889262155917</v>
+        <v>-0.04924027691288298</v>
       </c>
       <c r="C4">
-        <v>0.01551348892565958</v>
+        <v>-0.06016521788138425</v>
       </c>
       <c r="D4">
-        <v>0.03045416946126107</v>
+        <v>-0.02110593045806803</v>
       </c>
       <c r="E4">
-        <v>-0.0279562014519418</v>
+        <v>-0.002187206113360201</v>
       </c>
       <c r="F4">
-        <v>-0.05596350025651503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.02059335773959818</v>
+      </c>
+      <c r="G4">
+        <v>0.03780346450394095</v>
+      </c>
+      <c r="H4">
+        <v>-0.02801053941045721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.0620403901055338</v>
+        <v>-0.02700464071390014</v>
       </c>
       <c r="C6">
-        <v>0.00368996495635542</v>
+        <v>-0.0569993776545442</v>
       </c>
       <c r="D6">
-        <v>0.04311846934463809</v>
+        <v>-0.01578938105056809</v>
       </c>
       <c r="E6">
-        <v>-0.02135055315832594</v>
+        <v>0.001520228529545604</v>
       </c>
       <c r="F6">
-        <v>-0.03388897298382358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02041699601692801</v>
+      </c>
+      <c r="G6">
+        <v>0.01864746230392438</v>
+      </c>
+      <c r="H6">
+        <v>-0.003239517445281786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02723813379356521</v>
+        <v>-0.0120966020720106</v>
       </c>
       <c r="C7">
-        <v>0.07006182264396683</v>
+        <v>-0.03731162753436911</v>
       </c>
       <c r="D7">
-        <v>0.001288588840758238</v>
+        <v>-0.01258649184459424</v>
       </c>
       <c r="E7">
-        <v>-0.009122912955381939</v>
+        <v>-0.01716496533457048</v>
       </c>
       <c r="F7">
-        <v>-0.006510377775796174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.0118825739584373</v>
+      </c>
+      <c r="G7">
+        <v>0.07214279968509577</v>
+      </c>
+      <c r="H7">
+        <v>0.009899382709802312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01663839767392343</v>
+        <v>0.009037078179105111</v>
       </c>
       <c r="C8">
-        <v>0.01040831329156447</v>
+        <v>-0.008438740349846655</v>
       </c>
       <c r="D8">
-        <v>0.02225787421104336</v>
+        <v>-0.003261000913575375</v>
       </c>
       <c r="E8">
-        <v>-0.02474724265139382</v>
+        <v>0.009516827906750023</v>
       </c>
       <c r="F8">
-        <v>-0.05004178185532485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02783493895917249</v>
+      </c>
+      <c r="G8">
+        <v>0.02616100947810954</v>
+      </c>
+      <c r="H8">
+        <v>-0.02327435592076468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.02805213277829468</v>
+        <v>-0.02506346813865232</v>
       </c>
       <c r="C9">
-        <v>0.01212956194960653</v>
+        <v>-0.04017715367184761</v>
       </c>
       <c r="D9">
-        <v>0.02507327025355817</v>
+        <v>-0.01457529254779954</v>
       </c>
       <c r="E9">
-        <v>-0.04876663711497314</v>
+        <v>-0.00113994634520705</v>
       </c>
       <c r="F9">
-        <v>-0.03393617588381245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.02033496739194916</v>
+      </c>
+      <c r="G9">
+        <v>0.02594681295973293</v>
+      </c>
+      <c r="H9">
+        <v>0.003821738504928384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.05239857270996748</v>
+        <v>-0.1000121021451887</v>
       </c>
       <c r="C10">
-        <v>-0.01495381986432594</v>
+        <v>0.1773212423832358</v>
       </c>
       <c r="D10">
-        <v>-0.170206945533448</v>
+        <v>0.02128195834480204</v>
       </c>
       <c r="E10">
-        <v>-0.03555389134448535</v>
+        <v>0.0176931885978645</v>
       </c>
       <c r="F10">
-        <v>-0.0001835195950460258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.01030780679099105</v>
+      </c>
+      <c r="G10">
+        <v>0.0302622500480832</v>
+      </c>
+      <c r="H10">
+        <v>0.02531893371215329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02830490569769724</v>
+        <v>-0.03080819916946485</v>
       </c>
       <c r="C11">
-        <v>-0.002837923314564875</v>
+        <v>-0.05553706382909235</v>
       </c>
       <c r="D11">
-        <v>0.04281123750128979</v>
+        <v>-0.000578641610912744</v>
       </c>
       <c r="E11">
-        <v>-0.009736744689431967</v>
+        <v>-0.007536068182314734</v>
       </c>
       <c r="F11">
-        <v>-0.01736592183939731</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02749762622502209</v>
+      </c>
+      <c r="G11">
+        <v>0.006739745723909282</v>
+      </c>
+      <c r="H11">
+        <v>-0.003210564484367001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03612549782850553</v>
+        <v>-0.03069286316711183</v>
       </c>
       <c r="C12">
-        <v>0.003270017285597769</v>
+        <v>-0.04972873649889774</v>
       </c>
       <c r="D12">
-        <v>0.04118690602796723</v>
+        <v>-0.004989519450838729</v>
       </c>
       <c r="E12">
-        <v>0.01010106376289666</v>
+        <v>-0.01320327278614785</v>
       </c>
       <c r="F12">
-        <v>-0.003120323411821588</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.008379750555676097</v>
+      </c>
+      <c r="G12">
+        <v>0.0138587092611077</v>
+      </c>
+      <c r="H12">
+        <v>-0.001825091930025638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01664446460062363</v>
+        <v>-0.008914530368726978</v>
       </c>
       <c r="C13">
-        <v>-0.002210106115630946</v>
+        <v>-0.02854977680406372</v>
       </c>
       <c r="D13">
-        <v>0.01659930574297886</v>
+        <v>-0.0237669617056378</v>
       </c>
       <c r="E13">
-        <v>-0.04381164219740914</v>
+        <v>0.01638916339067695</v>
       </c>
       <c r="F13">
-        <v>-0.0441437193949977</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.0357211180607999</v>
+      </c>
+      <c r="G13">
+        <v>0.02124444790752986</v>
+      </c>
+      <c r="H13">
+        <v>-0.01021287819396685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01446188056268706</v>
+        <v>-0.004867257083884135</v>
       </c>
       <c r="C14">
-        <v>0.0138241376525137</v>
+        <v>-0.02409108136387428</v>
       </c>
       <c r="D14">
-        <v>0.009283804107586306</v>
+        <v>-0.008137325090978706</v>
       </c>
       <c r="E14">
-        <v>-0.0194731873133362</v>
+        <v>-0.00769608549590494</v>
       </c>
       <c r="F14">
-        <v>-0.04126717561019527</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.005345071330442881</v>
+      </c>
+      <c r="G14">
+        <v>0.03188174035488874</v>
+      </c>
+      <c r="H14">
+        <v>-0.01399648418685719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02604075060864806</v>
+        <v>-0.02679850431779374</v>
       </c>
       <c r="C16">
-        <v>0.003188798048201479</v>
+        <v>-0.04215158313087414</v>
       </c>
       <c r="D16">
-        <v>0.04193131806292923</v>
+        <v>-0.0002013756543386856</v>
       </c>
       <c r="E16">
-        <v>-0.01092397546092961</v>
+        <v>-0.004941552522407021</v>
       </c>
       <c r="F16">
-        <v>-0.02228879807466948</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01588646785087605</v>
+      </c>
+      <c r="G16">
+        <v>0.01228157649172698</v>
+      </c>
+      <c r="H16">
+        <v>-0.005237263250756445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.0301150379070682</v>
+        <v>-0.02363565852829747</v>
       </c>
       <c r="C19">
-        <v>0.000378429136961105</v>
+        <v>-0.05133439592652143</v>
       </c>
       <c r="D19">
-        <v>0.03510846976876918</v>
+        <v>-0.01415496835261208</v>
       </c>
       <c r="E19">
-        <v>-0.04615811415265231</v>
+        <v>0.02936158499811024</v>
       </c>
       <c r="F19">
-        <v>-0.08049379699044701</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.04584579670584593</v>
+      </c>
+      <c r="G19">
+        <v>0.03332872536570404</v>
+      </c>
+      <c r="H19">
+        <v>-0.02584224564753631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001831364082850041</v>
+        <v>-0.006135285849188139</v>
       </c>
       <c r="C20">
-        <v>0.003611432759494482</v>
+        <v>-0.02977605548627534</v>
       </c>
       <c r="D20">
-        <v>0.001277930041453526</v>
+        <v>-0.01242078892634995</v>
       </c>
       <c r="E20">
-        <v>-0.03087977006258148</v>
+        <v>0.01614380892209309</v>
       </c>
       <c r="F20">
-        <v>-0.02586084721234856</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01461536821094971</v>
+      </c>
+      <c r="G20">
+        <v>0.02189339099509827</v>
+      </c>
+      <c r="H20">
+        <v>-0.01035740454487255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03846662574255415</v>
+        <v>-0.007848829568979563</v>
       </c>
       <c r="C21">
-        <v>0.02093517450236292</v>
+        <v>-0.03133099438502197</v>
       </c>
       <c r="D21">
-        <v>0.01393813725836401</v>
+        <v>-0.01538753621967908</v>
       </c>
       <c r="E21">
-        <v>-0.0211470805895578</v>
+        <v>0.0209436758171317</v>
       </c>
       <c r="F21">
-        <v>-0.04198732421865931</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.02639180538692684</v>
+      </c>
+      <c r="G21">
+        <v>0.04474324846226002</v>
+      </c>
+      <c r="H21">
+        <v>-0.00834884580538783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.0249537414258544</v>
+        <v>-0.0218136821658802</v>
       </c>
       <c r="C24">
-        <v>0.0009033084806453002</v>
+        <v>-0.04661218114552525</v>
       </c>
       <c r="D24">
-        <v>0.03504203155574342</v>
+        <v>-0.005551681386136277</v>
       </c>
       <c r="E24">
-        <v>-0.009121701217723774</v>
+        <v>-0.009779795948613374</v>
       </c>
       <c r="F24">
-        <v>-0.01565119906117955</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02280969134299353</v>
+      </c>
+      <c r="G24">
+        <v>0.009149397063266951</v>
+      </c>
+      <c r="H24">
+        <v>0.002568846322387728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03757913444589237</v>
+        <v>-0.03844459671746128</v>
       </c>
       <c r="C25">
-        <v>-0.0009016646978592626</v>
+        <v>-0.05537690732937728</v>
       </c>
       <c r="D25">
-        <v>0.03228023869437454</v>
+        <v>-0.009411946561730455</v>
       </c>
       <c r="E25">
-        <v>-0.02320759298510678</v>
+        <v>-0.01680216189386365</v>
       </c>
       <c r="F25">
-        <v>-0.02659644544486516</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.0200525928087734</v>
+      </c>
+      <c r="G25">
+        <v>0.01638480566440392</v>
+      </c>
+      <c r="H25">
+        <v>-0.007585827591622823</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.003220104569777134</v>
+        <v>-0.0009705780577939858</v>
       </c>
       <c r="C26">
-        <v>0.009922205344485712</v>
+        <v>-0.0045227636564458</v>
       </c>
       <c r="D26">
-        <v>0.006048611964166725</v>
+        <v>-0.02343986160019532</v>
       </c>
       <c r="E26">
-        <v>-0.03298000612334114</v>
+        <v>0.002679124112278229</v>
       </c>
       <c r="F26">
-        <v>-0.01186748750755432</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.009619802753723357</v>
+      </c>
+      <c r="G26">
+        <v>0.01987494959437069</v>
+      </c>
+      <c r="H26">
+        <v>-0.00705599804606507</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.0009674518150754229</v>
+        <v>-0.0001657243619441963</v>
       </c>
       <c r="C27">
-        <v>-7.397837623060001e-05</v>
+        <v>-0.0002437417734484896</v>
       </c>
       <c r="D27">
-        <v>0.000910545867440415</v>
+        <v>-2.128562986793831e-05</v>
       </c>
       <c r="E27">
-        <v>-3.758135350602778e-07</v>
+        <v>0.0001103541503786858</v>
       </c>
       <c r="F27">
-        <v>0.00109219836833284</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.0005741192839372902</v>
+      </c>
+      <c r="G27">
+        <v>-7.31139155829221e-05</v>
+      </c>
+      <c r="H27">
+        <v>0.0004817144703801971</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.08613833323312321</v>
+        <v>-0.1319693707343118</v>
       </c>
       <c r="C28">
-        <v>-0.02301340855247001</v>
+        <v>0.2130393108088967</v>
       </c>
       <c r="D28">
-        <v>-0.2447005127170617</v>
+        <v>0.01324031874563196</v>
       </c>
       <c r="E28">
-        <v>-0.04155396614902347</v>
+        <v>0.01080006143172037</v>
       </c>
       <c r="F28">
-        <v>0.009976269897021954</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.009766586555232132</v>
+      </c>
+      <c r="G28">
+        <v>0.04619261576414751</v>
+      </c>
+      <c r="H28">
+        <v>0.01978432351754799</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01407659866896565</v>
+        <v>-0.009929533121630712</v>
       </c>
       <c r="C29">
-        <v>0.01036079977766563</v>
+        <v>-0.01937539888077493</v>
       </c>
       <c r="D29">
-        <v>0.009193743056980581</v>
+        <v>-0.006817453673598931</v>
       </c>
       <c r="E29">
-        <v>-0.01755208636257416</v>
+        <v>-0.006734120297092668</v>
       </c>
       <c r="F29">
-        <v>-0.04529547402048816</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.0003466726774932283</v>
+      </c>
+      <c r="G29">
+        <v>0.0262864313234926</v>
+      </c>
+      <c r="H29">
+        <v>-0.01936423366795237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04179051896262428</v>
+        <v>-0.03153039586008746</v>
       </c>
       <c r="C30">
-        <v>-0.04876025327057112</v>
+        <v>-0.07647058829444819</v>
       </c>
       <c r="D30">
-        <v>0.06526503732000274</v>
+        <v>-0.0269465949683254</v>
       </c>
       <c r="E30">
-        <v>-0.05847712408581797</v>
+        <v>0.01863419428305895</v>
       </c>
       <c r="F30">
-        <v>-0.05758765906330652</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04986187682588286</v>
+      </c>
+      <c r="G30">
+        <v>-0.01232593335323709</v>
+      </c>
+      <c r="H30">
+        <v>-0.02282776409986602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0492274933233962</v>
+        <v>-0.03898141867021956</v>
       </c>
       <c r="C31">
-        <v>0.01023474001196825</v>
+        <v>-0.02526956801564839</v>
       </c>
       <c r="D31">
-        <v>0.01665527534909564</v>
+        <v>-0.001681882859049953</v>
       </c>
       <c r="E31">
-        <v>0.001236146909118302</v>
+        <v>-0.01688007900378637</v>
       </c>
       <c r="F31">
-        <v>-0.02989066686525564</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02606642844483074</v>
+      </c>
+      <c r="G31">
+        <v>0.02311311203713213</v>
+      </c>
+      <c r="H31">
+        <v>-0.006620064728919178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0007365440939387691</v>
+        <v>0.0002270020378721236</v>
       </c>
       <c r="C32">
-        <v>0.02922509937973816</v>
+        <v>-0.03043012462928221</v>
       </c>
       <c r="D32">
-        <v>0.02569220321352699</v>
+        <v>0.005284115431144249</v>
       </c>
       <c r="E32">
-        <v>-0.008279818911171879</v>
+        <v>0.01240063232572337</v>
       </c>
       <c r="F32">
-        <v>-0.0714173201668601</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.08173920786769344</v>
+      </c>
+      <c r="G32">
+        <v>0.04871770289641493</v>
+      </c>
+      <c r="H32">
+        <v>-0.04615488001639678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03099122661492961</v>
+        <v>-0.02470139721329502</v>
       </c>
       <c r="C33">
-        <v>-0.02065523801195289</v>
+        <v>-0.04960997780413529</v>
       </c>
       <c r="D33">
-        <v>0.0327204166651611</v>
+        <v>-0.01311606892871481</v>
       </c>
       <c r="E33">
-        <v>-0.04546822360476417</v>
+        <v>0.01321176179346999</v>
       </c>
       <c r="F33">
-        <v>-0.02273643908050539</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.0259565416590438</v>
+      </c>
+      <c r="G33">
+        <v>0.01026694502693868</v>
+      </c>
+      <c r="H33">
+        <v>0.008630420470238605</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02742616897743214</v>
+        <v>-0.03997582630097029</v>
       </c>
       <c r="C34">
-        <v>0.01103881356086505</v>
+        <v>-0.05663298757938143</v>
       </c>
       <c r="D34">
-        <v>0.04348222204176815</v>
+        <v>0.006737150267789489</v>
       </c>
       <c r="E34">
-        <v>-0.01049014753243394</v>
+        <v>-0.0173874925541074</v>
       </c>
       <c r="F34">
-        <v>-0.02722385627338431</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02502186941778555</v>
+      </c>
+      <c r="G34">
+        <v>0.02109647152560301</v>
+      </c>
+      <c r="H34">
+        <v>-0.003377633615856288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.0117146674146785</v>
+        <v>-0.009822719277698837</v>
       </c>
       <c r="C36">
-        <v>0.00524061259636443</v>
+        <v>-0.002778038745028922</v>
       </c>
       <c r="D36">
-        <v>0.0007681121045435121</v>
+        <v>-0.01026976922038512</v>
       </c>
       <c r="E36">
-        <v>-0.01336116146229947</v>
+        <v>-0.00239141862104406</v>
       </c>
       <c r="F36">
-        <v>-0.02093736815400761</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.001849302727390247</v>
+      </c>
+      <c r="G36">
+        <v>0.01344654128672319</v>
+      </c>
+      <c r="H36">
+        <v>-0.001394127921579233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01951966409736583</v>
+        <v>-0.0258654407932286</v>
       </c>
       <c r="C38">
-        <v>-0.003709752484605443</v>
+        <v>-0.01939848136314197</v>
       </c>
       <c r="D38">
-        <v>0.006035205996319877</v>
+        <v>0.008442334143508187</v>
       </c>
       <c r="E38">
-        <v>-0.0441771197168321</v>
+        <v>-0.002949679598916174</v>
       </c>
       <c r="F38">
-        <v>-0.02971552924014629</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01192379565105019</v>
+      </c>
+      <c r="G38">
+        <v>0.01775730873999105</v>
+      </c>
+      <c r="H38">
+        <v>-0.003450764397552827</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.0204990883260742</v>
+        <v>-0.02123653858434172</v>
       </c>
       <c r="C39">
-        <v>0.009366771528634686</v>
+        <v>-0.08316723966266168</v>
       </c>
       <c r="D39">
-        <v>0.06789728012482588</v>
+        <v>-0.01130460882625901</v>
       </c>
       <c r="E39">
-        <v>-0.03640446538584694</v>
+        <v>0.004308820219402179</v>
       </c>
       <c r="F39">
-        <v>-0.04465597354877672</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04506247665367251</v>
+      </c>
+      <c r="G39">
+        <v>0.01137843404917876</v>
+      </c>
+      <c r="H39">
+        <v>0.006635959062490665</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02646173295924607</v>
+        <v>-0.01642730583586581</v>
       </c>
       <c r="C40">
-        <v>-0.0008731638751086031</v>
+        <v>-0.02927039407078592</v>
       </c>
       <c r="D40">
-        <v>0.04343476464306512</v>
+        <v>-0.01231842506866294</v>
       </c>
       <c r="E40">
-        <v>-0.02587789629573703</v>
+        <v>0.00732395016151591</v>
       </c>
       <c r="F40">
-        <v>-0.005880936095203759</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02892720957867212</v>
+      </c>
+      <c r="G40">
+        <v>0.01018846294613338</v>
+      </c>
+      <c r="H40">
+        <v>0.005789659504525983</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.01009775506520698</v>
+        <v>-0.01114158251105297</v>
       </c>
       <c r="C41">
-        <v>-0.001468368874294818</v>
+        <v>0.005148037796317047</v>
       </c>
       <c r="D41">
-        <v>-0.01178916886282206</v>
+        <v>-0.002591299389362143</v>
       </c>
       <c r="E41">
-        <v>-0.00761507907462139</v>
+        <v>-0.008230803018303232</v>
       </c>
       <c r="F41">
-        <v>-0.007778720048583579</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.001024621988909321</v>
+      </c>
+      <c r="G41">
+        <v>0.007582174376708981</v>
+      </c>
+      <c r="H41">
+        <v>-0.002240237701583762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.1991876555442088</v>
+        <v>-0.04474620148904464</v>
       </c>
       <c r="C42">
-        <v>-0.140878563423377</v>
+        <v>-0.07705707833168582</v>
       </c>
       <c r="D42">
-        <v>0.1255279445605214</v>
+        <v>-0.1107748672172665</v>
       </c>
       <c r="E42">
-        <v>-0.3097606578662481</v>
+        <v>0.09464532803733366</v>
       </c>
       <c r="F42">
-        <v>0.863246860413926</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1915803678077894</v>
+      </c>
+      <c r="G42">
+        <v>-0.3159442083988462</v>
+      </c>
+      <c r="H42">
+        <v>0.8883551397956178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01439703219707937</v>
+        <v>-0.0249236242063227</v>
       </c>
       <c r="C43">
-        <v>-0.004493889000104876</v>
+        <v>-0.003815690246354182</v>
       </c>
       <c r="D43">
-        <v>-0.01014903862021641</v>
+        <v>-0.002366017505825238</v>
       </c>
       <c r="E43">
-        <v>-0.01338448587583075</v>
+        <v>-0.006078305710912006</v>
       </c>
       <c r="F43">
-        <v>-0.01129527866149981</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.005390086690929629</v>
+      </c>
+      <c r="G43">
+        <v>0.008779941033822635</v>
+      </c>
+      <c r="H43">
+        <v>-0.003120600937744068</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.007301911753031466</v>
+        <v>-0.01124270669712471</v>
       </c>
       <c r="C44">
-        <v>0.01187326584402405</v>
+        <v>-0.04812857315442858</v>
       </c>
       <c r="D44">
-        <v>0.0169319934103118</v>
+        <v>-0.006291992754172055</v>
       </c>
       <c r="E44">
-        <v>-0.06177612874144701</v>
+        <v>0.01340323037354603</v>
       </c>
       <c r="F44">
-        <v>-0.0515447619125308</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02877745246552389</v>
+      </c>
+      <c r="G44">
+        <v>0.02802256243636007</v>
+      </c>
+      <c r="H44">
+        <v>0.01085266130137968</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0128240751906204</v>
+        <v>-0.0002302966797089478</v>
       </c>
       <c r="C46">
-        <v>0.0026027791798277</v>
+        <v>-0.01445355385295469</v>
       </c>
       <c r="D46">
-        <v>0.03433865998017566</v>
+        <v>-0.01103964937553692</v>
       </c>
       <c r="E46">
-        <v>-0.0363662890252688</v>
+        <v>-0.007799070253325192</v>
       </c>
       <c r="F46">
-        <v>-0.06665374398331947</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.004699958902756197</v>
+      </c>
+      <c r="G46">
+        <v>0.01846036556951236</v>
+      </c>
+      <c r="H46">
+        <v>-0.02003598916313215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0748966857342582</v>
+        <v>-0.06420037119783771</v>
       </c>
       <c r="C47">
-        <v>-0.006233327004620175</v>
+        <v>-0.05964287762187285</v>
       </c>
       <c r="D47">
-        <v>0.02178673692907842</v>
+        <v>0.005840679016929076</v>
       </c>
       <c r="E47">
-        <v>0.03090793164810049</v>
+        <v>-0.019111850795577</v>
       </c>
       <c r="F47">
-        <v>-0.001274816870229837</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.05627707820458532</v>
+      </c>
+      <c r="G47">
+        <v>0.01528667531299478</v>
+      </c>
+      <c r="H47">
+        <v>-0.01023355971687662</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02235880210692429</v>
+        <v>-0.01314316493005496</v>
       </c>
       <c r="C48">
-        <v>0.003848137789560157</v>
+        <v>-0.009708865445793536</v>
       </c>
       <c r="D48">
-        <v>0.008456570592471827</v>
+        <v>-0.0004872312558602748</v>
       </c>
       <c r="E48">
-        <v>-0.01534534108945714</v>
+        <v>-0.007945657697221272</v>
       </c>
       <c r="F48">
-        <v>-0.01850270091329613</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01299694935691088</v>
+      </c>
+      <c r="G48">
+        <v>0.01584526820048978</v>
+      </c>
+      <c r="H48">
+        <v>-0.004420140422584188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08110691972984209</v>
+        <v>-0.07038284641546386</v>
       </c>
       <c r="C50">
-        <v>0.02267890219135821</v>
+        <v>-0.06416468152090805</v>
       </c>
       <c r="D50">
-        <v>0.04201432629576045</v>
+        <v>0.004862799213848068</v>
       </c>
       <c r="E50">
-        <v>-0.001683186185753534</v>
+        <v>-0.01949393660018557</v>
       </c>
       <c r="F50">
-        <v>-0.009592147773796791</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.0544666192309021</v>
+      </c>
+      <c r="G50">
+        <v>0.04068214948154433</v>
+      </c>
+      <c r="H50">
+        <v>-0.006773423014985886</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.0102917817334999</v>
+        <v>-0.01137336469085813</v>
       </c>
       <c r="C51">
-        <v>0.006704087381657019</v>
+        <v>-0.02472550017514042</v>
       </c>
       <c r="D51">
-        <v>-0.0175556562210644</v>
+        <v>-0.008217723435816901</v>
       </c>
       <c r="E51">
-        <v>-0.06038350374793804</v>
+        <v>0.001783511699344615</v>
       </c>
       <c r="F51">
-        <v>-0.05610376431268416</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.03779475469499439</v>
+      </c>
+      <c r="G51">
+        <v>0.03205874831976938</v>
+      </c>
+      <c r="H51">
+        <v>0.002405573418541059</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1049951169859548</v>
+        <v>-0.09032011576869103</v>
       </c>
       <c r="C53">
-        <v>0.005447800003792623</v>
+        <v>-0.08138268424314632</v>
       </c>
       <c r="D53">
-        <v>0.05127075069250753</v>
+        <v>0.006886546073938466</v>
       </c>
       <c r="E53">
-        <v>0.05317679914420427</v>
+        <v>-0.04254019173824364</v>
       </c>
       <c r="F53">
-        <v>-0.004561914092721102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06583573173677319</v>
+      </c>
+      <c r="G53">
+        <v>0.01714197378989688</v>
+      </c>
+      <c r="H53">
+        <v>0.001779955272137886</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02636596160502972</v>
+        <v>-0.0267367580861049</v>
       </c>
       <c r="C54">
-        <v>0.007020480566777058</v>
+        <v>-0.003433214303256524</v>
       </c>
       <c r="D54">
-        <v>0.001937144695613134</v>
+        <v>0.005123475165172104</v>
       </c>
       <c r="E54">
-        <v>0.0008059648993461186</v>
+        <v>-0.002056741696377196</v>
       </c>
       <c r="F54">
-        <v>-0.03874942795722335</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.0001025161293957975</v>
+      </c>
+      <c r="G54">
+        <v>0.02392511337808027</v>
+      </c>
+      <c r="H54">
+        <v>-0.01486083305682541</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.07785548976455968</v>
+        <v>-0.06576965497996451</v>
       </c>
       <c r="C55">
-        <v>0.0002203153809399988</v>
+        <v>-0.07082120569306774</v>
       </c>
       <c r="D55">
-        <v>0.06445088595875037</v>
+        <v>0.00574722304276125</v>
       </c>
       <c r="E55">
-        <v>0.03323014533102609</v>
+        <v>-0.03187204109418024</v>
       </c>
       <c r="F55">
-        <v>0.00191859851196053</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.05985281118176097</v>
+      </c>
+      <c r="G55">
+        <v>0.006817200606403454</v>
+      </c>
+      <c r="H55">
+        <v>-0.00630176068532816</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1466373926728319</v>
+        <v>-0.1356996357898088</v>
       </c>
       <c r="C56">
-        <v>-0.004111704776658985</v>
+        <v>-0.1081212777967667</v>
       </c>
       <c r="D56">
-        <v>0.07090372163058462</v>
+        <v>0.01561362214730291</v>
       </c>
       <c r="E56">
-        <v>0.08492375668101436</v>
+        <v>-0.04433807605460731</v>
       </c>
       <c r="F56">
-        <v>0.01249898133715823</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.1059103023700066</v>
+      </c>
+      <c r="G56">
+        <v>-0.002711034109851281</v>
+      </c>
+      <c r="H56">
+        <v>-0.009211541654294662</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.0356472993319785</v>
+        <v>-0.01452006440586032</v>
       </c>
       <c r="C57">
-        <v>-0.008753790437719249</v>
+        <v>-0.01336193928153681</v>
       </c>
       <c r="D57">
-        <v>0.01349742681977992</v>
+        <v>-0.02373167649479485</v>
       </c>
       <c r="E57">
-        <v>-0.05238570598018739</v>
+        <v>0.03303842830835781</v>
       </c>
       <c r="F57">
-        <v>-0.01816317177902644</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.02171020668101652</v>
+      </c>
+      <c r="G57">
+        <v>0.02425025322093646</v>
+      </c>
+      <c r="H57">
+        <v>0.0007734922310701244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1743671905158136</v>
+        <v>-0.06526971336650429</v>
       </c>
       <c r="C58">
-        <v>-0.1334204579314595</v>
+        <v>-0.09313535751480843</v>
       </c>
       <c r="D58">
-        <v>0.1630295974219177</v>
+        <v>-0.02249785695189802</v>
       </c>
       <c r="E58">
-        <v>-0.6167181630250764</v>
+        <v>0.9472103287829724</v>
       </c>
       <c r="F58">
-        <v>-0.2160128712013125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.1988125451855527</v>
+      </c>
+      <c r="G58">
+        <v>0.08451900157860323</v>
+      </c>
+      <c r="H58">
+        <v>-0.1182385383120291</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.08851873008387176</v>
+        <v>-0.166419158959416</v>
       </c>
       <c r="C59">
-        <v>-0.04275404149454707</v>
+        <v>0.2018370254568842</v>
       </c>
       <c r="D59">
-        <v>-0.1986406669231388</v>
+        <v>0.02045650594563997</v>
       </c>
       <c r="E59">
-        <v>-0.05604329766798207</v>
+        <v>0.01611066098838316</v>
       </c>
       <c r="F59">
-        <v>-0.03340311499523399</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01522806893313088</v>
+      </c>
+      <c r="G59">
+        <v>0.01952157378751617</v>
+      </c>
+      <c r="H59">
+        <v>0.0004626941496500977</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1955215945184847</v>
+        <v>-0.2873024874554371</v>
       </c>
       <c r="C60">
-        <v>-0.04577219801986526</v>
+        <v>-0.09892362661720695</v>
       </c>
       <c r="D60">
-        <v>-0.02658470381544342</v>
+        <v>-0.002510087661258507</v>
       </c>
       <c r="E60">
-        <v>-0.1234853682149012</v>
+        <v>0.01132835891915836</v>
       </c>
       <c r="F60">
-        <v>-0.1098144420919448</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.3903573076197404</v>
+      </c>
+      <c r="G60">
+        <v>-0.0497919035646308</v>
+      </c>
+      <c r="H60">
+        <v>-0.01422201700887905</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.03082769222302884</v>
+        <v>-0.02551649939179807</v>
       </c>
       <c r="C61">
-        <v>0.003502560999175685</v>
+        <v>-0.06556544130481703</v>
       </c>
       <c r="D61">
-        <v>0.05385186923910508</v>
+        <v>-0.004436712774265725</v>
       </c>
       <c r="E61">
-        <v>-0.01943382321032758</v>
+        <v>-0.0009348306512867847</v>
       </c>
       <c r="F61">
-        <v>-0.03165791193252786</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.0314039097112717</v>
+      </c>
+      <c r="G61">
+        <v>0.01511909201265199</v>
+      </c>
+      <c r="H61">
+        <v>-0.005165694627644805</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01676113461031514</v>
+        <v>-0.01154913901587298</v>
       </c>
       <c r="C63">
-        <v>0.006638217147462495</v>
+        <v>-0.03123418398130967</v>
       </c>
       <c r="D63">
-        <v>0.02401621736733289</v>
+        <v>-0.007370877905582923</v>
       </c>
       <c r="E63">
-        <v>-0.00161917474925483</v>
+        <v>-0.01579120682937146</v>
       </c>
       <c r="F63">
-        <v>-0.01146239028866897</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.002879848470647935</v>
+      </c>
+      <c r="G63">
+        <v>0.02036121882690995</v>
+      </c>
+      <c r="H63">
+        <v>-0.01103974111504745</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04821490409783838</v>
+        <v>-0.04433412601045945</v>
       </c>
       <c r="C64">
-        <v>0.0007057481782645873</v>
+        <v>-0.03806490203592629</v>
       </c>
       <c r="D64">
-        <v>0.03253970721107985</v>
+        <v>-0.003407317893772726</v>
       </c>
       <c r="E64">
-        <v>-0.01169551591225465</v>
+        <v>-0.01734481269781855</v>
       </c>
       <c r="F64">
-        <v>-0.01998783284753581</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.01619030699087539</v>
+      </c>
+      <c r="G64">
+        <v>0.007984578639569927</v>
+      </c>
+      <c r="H64">
+        <v>0.02352850119575679</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.06916200227394326</v>
+        <v>-0.07290689298164214</v>
       </c>
       <c r="C65">
-        <v>0.003694806160031043</v>
+        <v>-0.07799428450908125</v>
       </c>
       <c r="D65">
-        <v>0.04558346161082127</v>
+        <v>-0.01455663117756986</v>
       </c>
       <c r="E65">
-        <v>-0.01525750027092842</v>
+        <v>-0.003600367253078714</v>
       </c>
       <c r="F65">
-        <v>-0.03290221243591143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.04668610901982588</v>
+      </c>
+      <c r="G65">
+        <v>0.01008633648707313</v>
+      </c>
+      <c r="H65">
+        <v>-0.0103810272427313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04389280225631755</v>
+        <v>-0.04072377683015307</v>
       </c>
       <c r="C66">
-        <v>-0.009138736957885687</v>
+        <v>-0.1227795477706956</v>
       </c>
       <c r="D66">
-        <v>0.07907732189686599</v>
+        <v>-0.01042899022729765</v>
       </c>
       <c r="E66">
-        <v>-0.01103128136150804</v>
+        <v>0.004755205387509477</v>
       </c>
       <c r="F66">
-        <v>-0.07383829707946289</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.05443063553932984</v>
+      </c>
+      <c r="G66">
+        <v>0.004906657037815019</v>
+      </c>
+      <c r="H66">
+        <v>-0.02079311640567534</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03689109929015899</v>
+        <v>-0.05234702827368006</v>
       </c>
       <c r="C67">
-        <v>-0.00840646158723502</v>
+        <v>-0.02464454737766083</v>
       </c>
       <c r="D67">
-        <v>0.001747699362500353</v>
+        <v>0.007574221140147077</v>
       </c>
       <c r="E67">
-        <v>-0.02336752841036454</v>
+        <v>-0.008551439729129542</v>
       </c>
       <c r="F67">
-        <v>-0.02666171535046356</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.008375478576140648</v>
+      </c>
+      <c r="G67">
+        <v>0.01757194019562732</v>
+      </c>
+      <c r="H67">
+        <v>-0.008419790311722285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.08011572185500106</v>
+        <v>-0.1490524950282899</v>
       </c>
       <c r="C68">
-        <v>-0.04147615188164556</v>
+        <v>0.2479644976397212</v>
       </c>
       <c r="D68">
-        <v>-0.222054524640808</v>
+        <v>0.002035366544541918</v>
       </c>
       <c r="E68">
-        <v>-0.02761429968925902</v>
+        <v>0.01687644863864367</v>
       </c>
       <c r="F68">
-        <v>-0.001481735564225657</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01969948591613232</v>
+      </c>
+      <c r="G68">
+        <v>0.01936622090957722</v>
+      </c>
+      <c r="H68">
+        <v>0.01472322375088479</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05619440560266588</v>
+        <v>-0.06767555634528324</v>
       </c>
       <c r="C69">
-        <v>-0.004656284538459865</v>
+        <v>-0.05740508167476104</v>
       </c>
       <c r="D69">
-        <v>0.03151264506095156</v>
+        <v>0.0107533055556201</v>
       </c>
       <c r="E69">
-        <v>0.02193809168063018</v>
+        <v>-0.03453697197681568</v>
       </c>
       <c r="F69">
-        <v>-0.02258963355428479</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.03137546400296517</v>
+      </c>
+      <c r="G69">
+        <v>0.01071631205083163</v>
+      </c>
+      <c r="H69">
+        <v>-0.02037269195249733</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.0718850923040609</v>
+        <v>-0.1421209481427732</v>
       </c>
       <c r="C71">
-        <v>-0.02714092653965499</v>
+        <v>0.2090155617347393</v>
       </c>
       <c r="D71">
-        <v>-0.2224856434983268</v>
+        <v>0.0101400952936015</v>
       </c>
       <c r="E71">
-        <v>-0.05162811063122922</v>
+        <v>0.02419814593606229</v>
       </c>
       <c r="F71">
-        <v>0.03520108078757426</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02492036765849026</v>
+      </c>
+      <c r="G71">
+        <v>0.02997638306201923</v>
+      </c>
+      <c r="H71">
+        <v>0.02918362982537235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1258715923562763</v>
+        <v>-0.07719194407636021</v>
       </c>
       <c r="C72">
-        <v>-0.003506905626418407</v>
+        <v>-0.08817173104779334</v>
       </c>
       <c r="D72">
-        <v>0.1224368742718214</v>
+        <v>0.01050080150593112</v>
       </c>
       <c r="E72">
-        <v>-0.05681056324803886</v>
+        <v>-0.01880054951005106</v>
       </c>
       <c r="F72">
-        <v>-0.1250498741484957</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.04079702157258704</v>
+      </c>
+      <c r="G72">
+        <v>-0.003458068893928621</v>
+      </c>
+      <c r="H72">
+        <v>-0.01859680902317299</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2419239585047649</v>
+        <v>-0.385426458971232</v>
       </c>
       <c r="C73">
-        <v>-0.1067197409083324</v>
+        <v>-0.1378970016212446</v>
       </c>
       <c r="D73">
-        <v>0.005928816142716879</v>
+        <v>-0.008040133659693589</v>
       </c>
       <c r="E73">
-        <v>-0.1973904669872559</v>
+        <v>0.06726933266610023</v>
       </c>
       <c r="F73">
-        <v>-0.05674379301528527</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.5274547348309158</v>
+      </c>
+      <c r="G73">
+        <v>-0.1051641301209271</v>
+      </c>
+      <c r="H73">
+        <v>0.07820792563971081</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1353647740436578</v>
+        <v>-0.1066902616968434</v>
       </c>
       <c r="C74">
-        <v>-0.01069541884930686</v>
+        <v>-0.1225395199201187</v>
       </c>
       <c r="D74">
-        <v>0.0714373733138432</v>
+        <v>0.01137488229444924</v>
       </c>
       <c r="E74">
-        <v>0.08120818985181498</v>
+        <v>-0.04261330657569712</v>
       </c>
       <c r="F74">
-        <v>-0.003282106655963828</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.0733918463541214</v>
+      </c>
+      <c r="G74">
+        <v>0.01131354154855363</v>
+      </c>
+      <c r="H74">
+        <v>-0.00661894614684726</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2710232659047343</v>
+        <v>-0.2452787917539684</v>
       </c>
       <c r="C75">
-        <v>-0.03075235149108095</v>
+        <v>-0.16768090268185</v>
       </c>
       <c r="D75">
-        <v>0.1022939407980527</v>
+        <v>0.03246938772803178</v>
       </c>
       <c r="E75">
-        <v>0.1557417156085912</v>
+        <v>-0.06204345180537201</v>
       </c>
       <c r="F75">
-        <v>-0.0361251237710442</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.2130929597288639</v>
+      </c>
+      <c r="G75">
+        <v>-0.01916076065449524</v>
+      </c>
+      <c r="H75">
+        <v>-0.02998067786883703</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2675456576037584</v>
+        <v>-0.1467083970960361</v>
       </c>
       <c r="C76">
-        <v>-0.01044221649240333</v>
+        <v>-0.1408064674051856</v>
       </c>
       <c r="D76">
-        <v>0.1158147323832266</v>
+        <v>0.02465575667767697</v>
       </c>
       <c r="E76">
-        <v>0.2144046039021776</v>
+        <v>-0.06981399664206871</v>
       </c>
       <c r="F76">
-        <v>0.01357769701025261</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1504909321870077</v>
+      </c>
+      <c r="G76">
+        <v>0.00432384591676927</v>
+      </c>
+      <c r="H76">
+        <v>-0.01044960914538533</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.07038644398181654</v>
+        <v>-0.04920091301837955</v>
       </c>
       <c r="C77">
-        <v>-0.01064384636183775</v>
+        <v>-0.06171132234812667</v>
       </c>
       <c r="D77">
-        <v>0.06515436139250091</v>
+        <v>-0.01251491423651711</v>
       </c>
       <c r="E77">
-        <v>-0.1060795026767309</v>
+        <v>0.03489205953932246</v>
       </c>
       <c r="F77">
-        <v>0.04670057582183877</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.002074556562645703</v>
+      </c>
+      <c r="G77">
+        <v>0.02411868609004785</v>
+      </c>
+      <c r="H77">
+        <v>0.0246337409511139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03212828997098362</v>
+        <v>-0.03940019549185512</v>
       </c>
       <c r="C78">
-        <v>0.007495227480828719</v>
+        <v>-0.05516835778141904</v>
       </c>
       <c r="D78">
-        <v>0.04985953791227645</v>
+        <v>-0.004443661440218113</v>
       </c>
       <c r="E78">
-        <v>-0.05489041620536671</v>
+        <v>0.01509958931152493</v>
       </c>
       <c r="F78">
-        <v>-0.0593554050949687</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04717128229575072</v>
+      </c>
+      <c r="G78">
+        <v>0.02293313707670334</v>
+      </c>
+      <c r="H78">
+        <v>-0.008281247409820437</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2417716956149829</v>
+        <v>-0.06260880835802864</v>
       </c>
       <c r="C80">
-        <v>0.9388966124501198</v>
+        <v>-0.08486833917864253</v>
       </c>
       <c r="D80">
-        <v>-0.1042739962215482</v>
+        <v>-0.01194250275494965</v>
       </c>
       <c r="E80">
-        <v>-0.1246441618883943</v>
+        <v>-0.07035928157636535</v>
       </c>
       <c r="F80">
-        <v>0.07455776207016418</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.01362622765158537</v>
+      </c>
+      <c r="G80">
+        <v>0.9034235300701643</v>
+      </c>
+      <c r="H80">
+        <v>0.3138093753657799</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.2153906963430542</v>
+        <v>-0.1470867692497261</v>
       </c>
       <c r="C81">
-        <v>-0.01505291878316107</v>
+        <v>-0.1068722420081505</v>
       </c>
       <c r="D81">
-        <v>0.07828734175312813</v>
+        <v>0.0187837315599272</v>
       </c>
       <c r="E81">
-        <v>0.1219814328081979</v>
+        <v>-0.04340795095977962</v>
       </c>
       <c r="F81">
-        <v>-0.04610591549857221</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1409335725963844</v>
+      </c>
+      <c r="G81">
+        <v>0.0109919116592248</v>
+      </c>
+      <c r="H81">
+        <v>-0.01448845434888273</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.03413098601516092</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.0244783166263958</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002845397776774199</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.023456292960753</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.003280185652960804</v>
+      </c>
+      <c r="G82">
+        <v>0.001426095757069174</v>
+      </c>
+      <c r="H82">
+        <v>-0.01604165985182965</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03330308807970617</v>
+        <v>-0.02492463641361129</v>
       </c>
       <c r="C83">
-        <v>-0.007564209073109182</v>
+        <v>-0.01882015117101094</v>
       </c>
       <c r="D83">
-        <v>0.004474774690217469</v>
+        <v>-0.004602728974081417</v>
       </c>
       <c r="E83">
-        <v>-0.03964057317120256</v>
+        <v>0.02080916443156066</v>
       </c>
       <c r="F83">
-        <v>-0.03341071344314696</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.02692367903840114</v>
+      </c>
+      <c r="G83">
+        <v>0.02562770634971904</v>
+      </c>
+      <c r="H83">
+        <v>-0.009817844869912256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2548148466884665</v>
+        <v>-0.2374509744788965</v>
       </c>
       <c r="C85">
-        <v>-0.03901199576913991</v>
+        <v>-0.1791464067303781</v>
       </c>
       <c r="D85">
-        <v>0.1197092332367927</v>
+        <v>0.02220060233317274</v>
       </c>
       <c r="E85">
-        <v>0.1865642815392052</v>
+        <v>-0.1009167617806918</v>
       </c>
       <c r="F85">
-        <v>-0.01633291695928372</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.2100264571250303</v>
+      </c>
+      <c r="G85">
+        <v>-0.05851376489402747</v>
+      </c>
+      <c r="H85">
+        <v>-0.03564451675339509</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.006229172373834074</v>
+        <v>-0.004171602218916058</v>
       </c>
       <c r="C86">
-        <v>0.009540012657715051</v>
+        <v>-0.02637442140869553</v>
       </c>
       <c r="D86">
-        <v>0.03684790225558336</v>
+        <v>-0.009563986376724277</v>
       </c>
       <c r="E86">
-        <v>-0.0506381406214929</v>
+        <v>0.01265813147621005</v>
       </c>
       <c r="F86">
-        <v>-0.05222001517740193</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02807810323931972</v>
+      </c>
+      <c r="G86">
+        <v>0.04402031259847822</v>
+      </c>
+      <c r="H86">
+        <v>0.02330135146825026</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.0257707014522657</v>
+        <v>-0.01135934785756873</v>
       </c>
       <c r="C87">
-        <v>0.006887970228460015</v>
+        <v>-0.02512276935254551</v>
       </c>
       <c r="D87">
-        <v>0.02759774422985702</v>
+        <v>-0.01092440771873007</v>
       </c>
       <c r="E87">
-        <v>-0.095008172805291</v>
+        <v>0.07307862611708139</v>
       </c>
       <c r="F87">
-        <v>-0.06886309214171264</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.06706838045009784</v>
+      </c>
+      <c r="G87">
+        <v>0.03469176474623196</v>
+      </c>
+      <c r="H87">
+        <v>0.006970620253940756</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.0431039864189588</v>
+        <v>-0.07466989642786456</v>
       </c>
       <c r="C88">
-        <v>-0.008291609371691573</v>
+        <v>-0.04689065992034868</v>
       </c>
       <c r="D88">
-        <v>-0.002643697152982263</v>
+        <v>-0.0194307070004092</v>
       </c>
       <c r="E88">
-        <v>0.007511337553100507</v>
+        <v>-0.01833706427445121</v>
       </c>
       <c r="F88">
-        <v>-0.001943786965478881</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.0117340255346249</v>
+      </c>
+      <c r="G88">
+        <v>0.01614420866632984</v>
+      </c>
+      <c r="H88">
+        <v>-0.02908219775541956</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1427605777632729</v>
+        <v>-0.2498813794703626</v>
       </c>
       <c r="C89">
-        <v>-0.08199095268231697</v>
+        <v>0.3641619355061326</v>
       </c>
       <c r="D89">
-        <v>-0.3795401419040192</v>
+        <v>0.01643825072901372</v>
       </c>
       <c r="E89">
-        <v>-0.006106801674325737</v>
+        <v>-0.003744452680485442</v>
       </c>
       <c r="F89">
-        <v>-0.05989105894340461</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02386300892028424</v>
+      </c>
+      <c r="G89">
+        <v>0.02251515781809128</v>
+      </c>
+      <c r="H89">
+        <v>-0.006357984220742178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08056808333513436</v>
+        <v>-0.2040709723769962</v>
       </c>
       <c r="C90">
-        <v>-0.07283065167229388</v>
+        <v>0.3274328471980865</v>
       </c>
       <c r="D90">
-        <v>-0.3406246249697185</v>
+        <v>0.01655292432645971</v>
       </c>
       <c r="E90">
-        <v>0.02295407056634018</v>
+        <v>0.006309176373577404</v>
       </c>
       <c r="F90">
-        <v>0.01326215493231273</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.04656833150646955</v>
+      </c>
+      <c r="G90">
+        <v>0.0003277944844985685</v>
+      </c>
+      <c r="H90">
+        <v>0.002552919349839674</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2901943329002007</v>
+        <v>-0.2051779476608749</v>
       </c>
       <c r="C91">
-        <v>-0.03766473310116599</v>
+        <v>-0.1433643888414934</v>
       </c>
       <c r="D91">
-        <v>0.1361506340732311</v>
+        <v>0.02803661499510892</v>
       </c>
       <c r="E91">
-        <v>0.2260386990651582</v>
+        <v>-0.08294563329643528</v>
       </c>
       <c r="F91">
-        <v>0.06264002935959037</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1972578995792243</v>
+      </c>
+      <c r="G91">
+        <v>-0.01654722467188361</v>
+      </c>
+      <c r="H91">
+        <v>-0.01585656047292888</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2227680785430209</v>
+        <v>-0.2329312106806958</v>
       </c>
       <c r="C92">
-        <v>-0.08945541712206621</v>
+        <v>0.2467822454177696</v>
       </c>
       <c r="D92">
-        <v>-0.3663998815627096</v>
+        <v>0.05797125879859124</v>
       </c>
       <c r="E92">
-        <v>0.09122411059683974</v>
+        <v>0.008792146076016047</v>
       </c>
       <c r="F92">
-        <v>-0.01674975010705187</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1408399683351147</v>
+      </c>
+      <c r="G92">
+        <v>0.04824095614749418</v>
+      </c>
+      <c r="H92">
+        <v>-0.01359430927094754</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1312475009501635</v>
+        <v>-0.2334545058937223</v>
       </c>
       <c r="C93">
-        <v>-0.101410987972061</v>
+        <v>0.3182932506579025</v>
       </c>
       <c r="D93">
-        <v>-0.3969370553423285</v>
+        <v>0.02334733019346844</v>
       </c>
       <c r="E93">
-        <v>-0.01514374201662445</v>
+        <v>0.02028317455482729</v>
       </c>
       <c r="F93">
-        <v>0.06476607920125914</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.01657585792282442</v>
+      </c>
+      <c r="G93">
+        <v>-0.009764668992500319</v>
+      </c>
+      <c r="H93">
+        <v>0.03875702730863082</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3286976860508086</v>
+        <v>-0.2708840022000094</v>
       </c>
       <c r="C94">
-        <v>-0.07414108474744566</v>
+        <v>-0.1734559846029397</v>
       </c>
       <c r="D94">
-        <v>0.09762706626971401</v>
+        <v>0.01691981678962795</v>
       </c>
       <c r="E94">
-        <v>0.2215031474828582</v>
+        <v>-0.1030078157346932</v>
       </c>
       <c r="F94">
-        <v>-0.08826313808533065</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.348907484551194</v>
+      </c>
+      <c r="G94">
+        <v>-0.0896740126901793</v>
+      </c>
+      <c r="H94">
+        <v>-0.2393430770164742</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.064081560541922</v>
+        <v>-0.0687122564702432</v>
       </c>
       <c r="C95">
-        <v>-0.07341844226193722</v>
+        <v>-0.09848988226308818</v>
       </c>
       <c r="D95">
-        <v>0.03369575057224972</v>
+        <v>0.007467763781778609</v>
       </c>
       <c r="E95">
-        <v>0.01836294456084045</v>
+        <v>0.06972604141987698</v>
       </c>
       <c r="F95">
-        <v>-0.09454799755495125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1479938249837388</v>
+      </c>
+      <c r="G95">
+        <v>-0.05967051772826408</v>
+      </c>
+      <c r="H95">
+        <v>-0.009284848780574425</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1951442613897406</v>
+        <v>-0.2106935773833997</v>
       </c>
       <c r="C98">
-        <v>-0.06551537808348269</v>
+        <v>-0.05603645485921232</v>
       </c>
       <c r="D98">
-        <v>-0.02887134921582094</v>
+        <v>0.02199887232696743</v>
       </c>
       <c r="E98">
-        <v>-0.1905421427970727</v>
+        <v>0.06417682362725076</v>
       </c>
       <c r="F98">
-        <v>-0.1084394094381848</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2584145736981774</v>
+      </c>
+      <c r="G98">
+        <v>-0.04044226533484486</v>
+      </c>
+      <c r="H98">
+        <v>0.0590007958402723</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.004659924710575047</v>
+        <v>-0.004957331622862968</v>
       </c>
       <c r="C101">
-        <v>0.00441454620542069</v>
+        <v>-0.02041624240059491</v>
       </c>
       <c r="D101">
-        <v>0.03138446554040503</v>
+        <v>-0.007717677739756457</v>
       </c>
       <c r="E101">
-        <v>-0.1305496662492832</v>
+        <v>0.02790181036667818</v>
       </c>
       <c r="F101">
-        <v>-0.1407462086700265</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.004566890798650454</v>
+      </c>
+      <c r="G101">
+        <v>0.03464597355680529</v>
+      </c>
+      <c r="H101">
+        <v>-0.04357247109297094</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1430549067327272</v>
+        <v>-0.117353359212317</v>
       </c>
       <c r="C102">
-        <v>-0.01620209753026765</v>
+        <v>-0.08615231755289779</v>
       </c>
       <c r="D102">
-        <v>0.05254222439561967</v>
+        <v>0.001436824685584778</v>
       </c>
       <c r="E102">
-        <v>0.1014470643127159</v>
+        <v>-0.04558896431907841</v>
       </c>
       <c r="F102">
-        <v>0.03639587837955772</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.06283075276293347</v>
+      </c>
+      <c r="G102">
+        <v>-0.0182782642442413</v>
+      </c>
+      <c r="H102">
+        <v>0.006094720539056599</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.03891062921472841</v>
+        <v>-0.007205688910299708</v>
       </c>
       <c r="C103">
-        <v>0.01345257103737881</v>
+        <v>-0.007144750502391806</v>
       </c>
       <c r="D103">
-        <v>0.01752649427035412</v>
+        <v>-7.778893994682114e-05</v>
       </c>
       <c r="E103">
-        <v>0.01494766532801135</v>
+        <v>-0.001985596122636444</v>
       </c>
       <c r="F103">
-        <v>-0.004972359414178324</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01126432015064975</v>
+      </c>
+      <c r="G103">
+        <v>0.01532014981726249</v>
+      </c>
+      <c r="H103">
+        <v>0.007018172899518717</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.05709747013777796</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.04897633959720112</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.984361000693687</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.04692978281661665</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.02814298546248776</v>
+      </c>
+      <c r="G104">
+        <v>0.01439040616044468</v>
+      </c>
+      <c r="H104">
+        <v>-0.1044404206793595</v>
       </c>
     </row>
   </sheetData>
